--- a/BangPhanCongDoAn.xlsx
+++ b/BangPhanCongDoAn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fiverr\Fiverr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KenTaShi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F0B626-9910-4C2E-A4EC-95D3DF560D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE3D44D8-283B-4D67-9CAB-0D1DF0D01FBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{12795E60-C464-4FC7-B81A-A59BE755DDEA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12795E60-C464-4FC7-B81A-A59BE755DDEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -883,7 +883,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
@@ -1328,17 +1328,17 @@
         <v>44179</v>
       </c>
       <c r="D12" s="27">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="23">
         <v>44179</v>
       </c>
       <c r="H12" s="27">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="I12" s="25" t="s">
         <v>9</v>
